--- a/www/IndicatorsPerCountry/NorthKorea_GDPperCapita_TerritorialRef_1948_2012_CCode_408.xlsx
+++ b/www/IndicatorsPerCountry/NorthKorea_GDPperCapita_TerritorialRef_1948_2012_CCode_408.xlsx
@@ -252,13 +252,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/NorthKorea_GDPperCapita_TerritorialRef_1948_2012_CCode_408.xlsx
+++ b/www/IndicatorsPerCountry/NorthKorea_GDPperCapita_TerritorialRef_1948_2012_CCode_408.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="82">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,193 +36,193 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>335.028508892</t>
+    <t>752.725639062669</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>337.272795701</t>
-  </si>
-  <si>
-    <t>485.452270101</t>
-  </si>
-  <si>
-    <t>853.857085842</t>
-  </si>
-  <si>
-    <t>708.983771737</t>
-  </si>
-  <si>
-    <t>752.919636234</t>
-  </si>
-  <si>
-    <t>965.981664297</t>
-  </si>
-  <si>
-    <t>1012.97218031</t>
-  </si>
-  <si>
-    <t>1053.91446753</t>
-  </si>
-  <si>
-    <t>1036.01024163</t>
-  </si>
-  <si>
-    <t>1086.98181489</t>
-  </si>
-  <si>
-    <t>1111.90668455</t>
-  </si>
-  <si>
-    <t>1119.93510344</t>
-  </si>
-  <si>
-    <t>1104.99427968</t>
-  </si>
-  <si>
-    <t>1123.99087739</t>
-  </si>
-  <si>
-    <t>1121.96077232</t>
-  </si>
-  <si>
-    <t>1186.04691411</t>
-  </si>
-  <si>
-    <t>1253.04836871</t>
-  </si>
-  <si>
-    <t>1294.99725793</t>
-  </si>
-  <si>
-    <t>1414.99330437</t>
-  </si>
-  <si>
-    <t>1482.9980703</t>
-  </si>
-  <si>
-    <t>1632.96532237</t>
-  </si>
-  <si>
-    <t>1838.97592906</t>
-  </si>
-  <si>
-    <t>1954.01031433</t>
-  </si>
-  <si>
-    <t>2522.10663466</t>
-  </si>
-  <si>
-    <t>2560.94870519</t>
-  </si>
-  <si>
-    <t>2824.31077326</t>
-  </si>
-  <si>
-    <t>2840.8929634</t>
-  </si>
-  <si>
-    <t>2840.9673427</t>
-  </si>
-  <si>
-    <t>2840.92164297</t>
-  </si>
-  <si>
-    <t>2840.92440454</t>
-  </si>
-  <si>
-    <t>2841.02954752</t>
-  </si>
-  <si>
-    <t>2840.92494844</t>
-  </si>
-  <si>
-    <t>2841.06944957</t>
-  </si>
-  <si>
-    <t>2841.00191394</t>
-  </si>
-  <si>
-    <t>2841.07940845</t>
-  </si>
-  <si>
-    <t>2840.99946478</t>
-  </si>
-  <si>
-    <t>2841.00901297</t>
-  </si>
-  <si>
-    <t>2840.9613547</t>
-  </si>
-  <si>
-    <t>2840.91741427</t>
-  </si>
-  <si>
-    <t>2841.05659279</t>
-  </si>
-  <si>
-    <t>2840.97875288</t>
-  </si>
-  <si>
-    <t>2841.03289785</t>
-  </si>
-  <si>
-    <t>2841.06547998</t>
-  </si>
-  <si>
-    <t>2841.00759655</t>
-  </si>
-  <si>
-    <t>2577.85878533</t>
-  </si>
-  <si>
-    <t>2541.3034174</t>
-  </si>
-  <si>
-    <t>1850.44114652</t>
-  </si>
-  <si>
-    <t>1521.22373668</t>
-  </si>
-  <si>
-    <t>1253.86681445</t>
-  </si>
-  <si>
-    <t>1175.98822903</t>
-  </si>
-  <si>
-    <t>1185.10534327</t>
-  </si>
-  <si>
-    <t>1199.40737618</t>
-  </si>
-  <si>
-    <t>1190.30543021</t>
-  </si>
-  <si>
-    <t>1177.49787146</t>
-  </si>
-  <si>
-    <t>1165.70751031</t>
-  </si>
-  <si>
-    <t>1155.7985376</t>
-  </si>
-  <si>
-    <t>1147.61269128</t>
-  </si>
-  <si>
-    <t>1140.16363578</t>
-  </si>
-  <si>
-    <t>1133.37367684</t>
-  </si>
-  <si>
-    <t>1127.1824296</t>
-  </si>
-  <si>
-    <t>1121.63132258</t>
+    <t>757.592399660057</t>
+  </si>
+  <si>
+    <t>1073.79218515661</t>
+  </si>
+  <si>
+    <t>1170.12947504923</t>
+  </si>
+  <si>
+    <t>1216.45975192823</t>
+  </si>
+  <si>
+    <t>1219.25016212823</t>
+  </si>
+  <si>
+    <t>1286.29796086775</t>
+  </si>
+  <si>
+    <t>1385.46144533211</t>
+  </si>
+  <si>
+    <t>1307.7706708874</t>
+  </si>
+  <si>
+    <t>1382.31081619543</t>
+  </si>
+  <si>
+    <t>1102.64694471882</t>
+  </si>
+  <si>
+    <t>1469.82078286337</t>
+  </si>
+  <si>
+    <t>1440.44329272521</t>
+  </si>
+  <si>
+    <t>1433.48686075922</t>
+  </si>
+  <si>
+    <t>1453.13020548845</t>
+  </si>
+  <si>
+    <t>1402.92713690053</t>
+  </si>
+  <si>
+    <t>1422.49482387392</t>
+  </si>
+  <si>
+    <t>1460.89789759927</t>
+  </si>
+  <si>
+    <t>1593.89826707408</t>
+  </si>
+  <si>
+    <t>1561.02176377286</t>
+  </si>
+  <si>
+    <t>1596.18813913168</t>
+  </si>
+  <si>
+    <t>1725.59684609893</t>
+  </si>
+  <si>
+    <t>1831.31393307957</t>
+  </si>
+  <si>
+    <t>1837.19395628138</t>
+  </si>
+  <si>
+    <t>1895.45328192576</t>
+  </si>
+  <si>
+    <t>1793.02814065952</t>
+  </si>
+  <si>
+    <t>1996.16491123244</t>
+  </si>
+  <si>
+    <t>2121.92475626296</t>
+  </si>
+  <si>
+    <t>2469.67781941679</t>
+  </si>
+  <si>
+    <t>2557.07319722189</t>
+  </si>
+  <si>
+    <t>2494.33784671389</t>
+  </si>
+  <si>
+    <t>2623.73050377988</t>
+  </si>
+  <si>
+    <t>2621.04329660168</t>
+  </si>
+  <si>
+    <t>2399.6421784848</t>
+  </si>
+  <si>
+    <t>2462.00463656339</t>
+  </si>
+  <si>
+    <t>2455.81857694823</t>
+  </si>
+  <si>
+    <t>2315.95886869544</t>
+  </si>
+  <si>
+    <t>2120.54612462779</t>
+  </si>
+  <si>
+    <t>1996.29334047591</t>
+  </si>
+  <si>
+    <t>1925.9560329888</t>
+  </si>
+  <si>
+    <t>1816.00900994004</t>
+  </si>
+  <si>
+    <t>1733.09950574924</t>
+  </si>
+  <si>
+    <t>1604.89952674453</t>
+  </si>
+  <si>
+    <t>1579.93092964188</t>
+  </si>
+  <si>
+    <t>1664.64215028779</t>
+  </si>
+  <si>
+    <t>1657.14443577225</t>
+  </si>
+  <si>
+    <t>1704.37326161717</t>
+  </si>
+  <si>
+    <t>1710.94957201576</t>
+  </si>
+  <si>
+    <t>1729.62207872068</t>
+  </si>
+  <si>
+    <t>1753.69193369254</t>
+  </si>
+  <si>
+    <t>1808.06182579764</t>
+  </si>
+  <si>
+    <t>1778.49565915524</t>
+  </si>
+  <si>
+    <t>1746.92756249456</t>
+  </si>
+  <si>
+    <t>1794.65737167766</t>
+  </si>
+  <si>
+    <t>1768.88974979975</t>
+  </si>
+  <si>
+    <t>1751.43628161136</t>
+  </si>
+  <si>
+    <t>1756.61080668874</t>
+  </si>
+  <si>
+    <t>1770.92094154285</t>
+  </si>
+  <si>
+    <t>1781.30084534494</t>
+  </si>
+  <si>
+    <t>1791.34364009763</t>
+  </si>
+  <si>
+    <t>1762.51667533842</t>
+  </si>
+  <si>
+    <t>1742.02229539263</t>
   </si>
   <si>
     <t>Description</t>
@@ -1887,7 +1887,7 @@
         <v>1911.0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -1904,7 +1904,7 @@
         <v>1912.0</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -1921,7 +1921,7 @@
         <v>1913.0</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -1938,7 +1938,7 @@
         <v>1914.0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -1955,7 +1955,7 @@
         <v>1915.0</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -1972,7 +1972,7 @@
         <v>1916.0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -1989,7 +1989,7 @@
         <v>1917.0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -2006,7 +2006,7 @@
         <v>1918.0</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101">
@@ -2023,7 +2023,7 @@
         <v>1919.0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -2040,7 +2040,7 @@
         <v>1920.0</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -2057,7 +2057,7 @@
         <v>1921.0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -2074,7 +2074,7 @@
         <v>1922.0</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -2091,7 +2091,7 @@
         <v>1923.0</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -2108,7 +2108,7 @@
         <v>1924.0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
@@ -2125,7 +2125,7 @@
         <v>1925.0</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
@@ -2142,7 +2142,7 @@
         <v>1926.0</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
@@ -2159,7 +2159,7 @@
         <v>1927.0</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2176,7 +2176,7 @@
         <v>1928.0</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
@@ -2193,7 +2193,7 @@
         <v>1929.0</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
@@ -2210,7 +2210,7 @@
         <v>1930.0</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -2227,7 +2227,7 @@
         <v>1931.0</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
@@ -2244,7 +2244,7 @@
         <v>1932.0</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -2261,7 +2261,7 @@
         <v>1933.0</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -2278,7 +2278,7 @@
         <v>1934.0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -2295,7 +2295,7 @@
         <v>1935.0</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -2312,7 +2312,7 @@
         <v>1936.0</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
@@ -2329,7 +2329,7 @@
         <v>1937.0</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120">
@@ -2346,7 +2346,7 @@
         <v>1938.0</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121">
@@ -2363,7 +2363,7 @@
         <v>1939.0</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122">
@@ -2380,7 +2380,7 @@
         <v>1940.0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123">
@@ -2397,7 +2397,7 @@
         <v>1941.0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
@@ -2414,7 +2414,7 @@
         <v>1942.0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125">
@@ -2431,7 +2431,7 @@
         <v>1943.0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126">
@@ -2550,7 +2550,7 @@
         <v>1950.0</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -2567,7 +2567,7 @@
         <v>1951.0</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -2584,7 +2584,7 @@
         <v>1952.0</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -2601,7 +2601,7 @@
         <v>1953.0</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -2618,7 +2618,7 @@
         <v>1954.0</v>
       </c>
       <c r="E136" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -2635,7 +2635,7 @@
         <v>1955.0</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -2652,7 +2652,7 @@
         <v>1956.0</v>
       </c>
       <c r="E138" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -2669,7 +2669,7 @@
         <v>1957.0</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
@@ -2686,7 +2686,7 @@
         <v>1958.0</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -2703,7 +2703,7 @@
         <v>1959.0</v>
       </c>
       <c r="E141" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -2720,7 +2720,7 @@
         <v>1960.0</v>
       </c>
       <c r="E142" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -2737,7 +2737,7 @@
         <v>1961.0</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -2754,7 +2754,7 @@
         <v>1962.0</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145">
@@ -2771,7 +2771,7 @@
         <v>1963.0</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
@@ -2788,7 +2788,7 @@
         <v>1964.0</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
@@ -2805,7 +2805,7 @@
         <v>1965.0</v>
       </c>
       <c r="E147" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -2822,7 +2822,7 @@
         <v>1966.0</v>
       </c>
       <c r="E148" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
@@ -2839,7 +2839,7 @@
         <v>1967.0</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -2856,7 +2856,7 @@
         <v>1968.0</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -2873,7 +2873,7 @@
         <v>1969.0</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
@@ -2890,7 +2890,7 @@
         <v>1970.0</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
@@ -2907,7 +2907,7 @@
         <v>1971.0</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
@@ -2924,7 +2924,7 @@
         <v>1972.0</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -2941,7 +2941,7 @@
         <v>1973.0</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -2958,7 +2958,7 @@
         <v>1974.0</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
@@ -2975,7 +2975,7 @@
         <v>1975.0</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -2992,7 +2992,7 @@
         <v>1976.0</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -3009,7 +3009,7 @@
         <v>1977.0</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -3026,7 +3026,7 @@
         <v>1978.0</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -3043,7 +3043,7 @@
         <v>1979.0</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -3060,7 +3060,7 @@
         <v>1980.0</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -3077,7 +3077,7 @@
         <v>1981.0</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -3094,7 +3094,7 @@
         <v>1982.0</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -3111,7 +3111,7 @@
         <v>1983.0</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -3128,7 +3128,7 @@
         <v>1984.0</v>
       </c>
       <c r="E166" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -3145,7 +3145,7 @@
         <v>1985.0</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -3162,7 +3162,7 @@
         <v>1986.0</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -3179,7 +3179,7 @@
         <v>1987.0</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -3196,7 +3196,7 @@
         <v>1988.0</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -3213,7 +3213,7 @@
         <v>1989.0</v>
       </c>
       <c r="E171" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -3230,7 +3230,7 @@
         <v>1990.0</v>
       </c>
       <c r="E172" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173">
@@ -3247,7 +3247,7 @@
         <v>1991.0</v>
       </c>
       <c r="E173" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174">
@@ -3264,7 +3264,7 @@
         <v>1992.0</v>
       </c>
       <c r="E174" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175">
@@ -3281,7 +3281,7 @@
         <v>1993.0</v>
       </c>
       <c r="E175" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176">
@@ -3298,7 +3298,7 @@
         <v>1994.0</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177">
@@ -3315,7 +3315,7 @@
         <v>1995.0</v>
       </c>
       <c r="E177" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178">
@@ -3332,7 +3332,7 @@
         <v>1996.0</v>
       </c>
       <c r="E178" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179">
@@ -3349,7 +3349,7 @@
         <v>1997.0</v>
       </c>
       <c r="E179" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180">
@@ -3366,7 +3366,7 @@
         <v>1998.0</v>
       </c>
       <c r="E180" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181">
@@ -3383,7 +3383,7 @@
         <v>1999.0</v>
       </c>
       <c r="E181" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182">
@@ -3400,7 +3400,7 @@
         <v>2000.0</v>
       </c>
       <c r="E182" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183">
@@ -3417,7 +3417,7 @@
         <v>2001.0</v>
       </c>
       <c r="E183" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184">
@@ -3434,7 +3434,7 @@
         <v>2002.0</v>
       </c>
       <c r="E184" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185">
@@ -3451,7 +3451,7 @@
         <v>2003.0</v>
       </c>
       <c r="E185" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186">
@@ -3468,7 +3468,7 @@
         <v>2004.0</v>
       </c>
       <c r="E186" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187">
@@ -3485,7 +3485,7 @@
         <v>2005.0</v>
       </c>
       <c r="E187" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188">
@@ -3502,7 +3502,7 @@
         <v>2006.0</v>
       </c>
       <c r="E188" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189">
@@ -3519,7 +3519,7 @@
         <v>2007.0</v>
       </c>
       <c r="E189" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190">
@@ -3536,6 +3536,142 @@
         <v>2008.0</v>
       </c>
       <c r="E190" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
         <v>69</v>
       </c>
     </row>
